--- a/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
+++ b/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>S.N</t>
   </si>
@@ -89,6 +89,33 @@
   </si>
   <si>
     <t xml:space="preserve">1 time 20days stay in CC. 2nd Time same problem </t>
+  </si>
+  <si>
+    <t>Desh mobile</t>
+  </si>
+  <si>
+    <t>c25s-128</t>
+  </si>
+  <si>
+    <t>30.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shohan enterprise </t>
+  </si>
+  <si>
+    <t>Apurbo mobile</t>
+  </si>
+  <si>
+    <t>c20a</t>
+  </si>
+  <si>
+    <t>friends mobile</t>
+  </si>
+  <si>
+    <t>P+C</t>
+  </si>
+  <si>
+    <t>C25s/64</t>
   </si>
 </sst>
 </file>
@@ -546,7 +573,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,19 +653,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4">
-        <v>868529041973511</v>
+        <v>867623053838711</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -647,19 +674,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="4">
-        <v>869092052372098</v>
+        <v>869092052729339</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -668,19 +695,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4">
-        <v>867623051022870</v>
+        <v>868790052445811</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -688,22 +715,42 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4">
+        <v>864623050833338</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4">
+        <v>867623050430934</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
+++ b/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>S.N</t>
   </si>
@@ -94,28 +94,25 @@
     <t>Desh mobile</t>
   </si>
   <si>
-    <t>c25s-128</t>
-  </si>
-  <si>
-    <t>30.11.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shohan enterprise </t>
-  </si>
-  <si>
     <t>Apurbo mobile</t>
   </si>
   <si>
     <t>c20a</t>
   </si>
   <si>
-    <t>friends mobile</t>
-  </si>
-  <si>
-    <t>P+C</t>
-  </si>
-  <si>
     <t>C25s/64</t>
+  </si>
+  <si>
+    <t>04.12.2021</t>
+  </si>
+  <si>
+    <t>Adil electronics</t>
+  </si>
+  <si>
+    <t>(c12-32)</t>
+  </si>
+  <si>
+    <t>(c25s-64)</t>
   </si>
 </sst>
 </file>
@@ -573,7 +570,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,19 +650,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4">
-        <v>867623053838711</v>
+        <v>864997051076893</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -674,19 +671,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4">
-        <v>869092052729339</v>
+        <v>868790051865118</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -695,19 +692,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4">
-        <v>868790052445811</v>
+        <v>867623050565770</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -716,19 +713,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4">
-        <v>864623050833338</v>
+        <v>867623050566133</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -736,21 +733,11 @@
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4">
-        <v>867623050430934</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -921,8 +908,8 @@
       <c r="G24" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A4:F21">
-    <sortCondition ref="A4"/>
+  <sortState ref="B5:F8">
+    <sortCondition ref="B5"/>
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="A1:G1"/>

--- a/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
+++ b/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>S.N</t>
   </si>
@@ -91,28 +91,19 @@
     <t xml:space="preserve">1 time 20days stay in CC. 2nd Time same problem </t>
   </si>
   <si>
-    <t>Desh mobile</t>
-  </si>
-  <si>
-    <t>Apurbo mobile</t>
-  </si>
-  <si>
-    <t>c20a</t>
-  </si>
-  <si>
-    <t>C25s/64</t>
-  </si>
-  <si>
-    <t>04.12.2021</t>
-  </si>
-  <si>
-    <t>Adil electronics</t>
-  </si>
-  <si>
-    <t>(c12-32)</t>
-  </si>
-  <si>
-    <t>(c25s-64)</t>
+    <t>Zilani Mobile</t>
+  </si>
+  <si>
+    <t>7i</t>
+  </si>
+  <si>
+    <t>09.12.2021</t>
+  </si>
+  <si>
+    <t>Tuhin Mobile</t>
+  </si>
+  <si>
+    <t>C25/64</t>
   </si>
 </sst>
 </file>
@@ -570,7 +561,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,19 +641,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4">
-        <v>864997051076893</v>
+        <v>861627040681270</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -671,19 +662,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4">
-        <v>868790051865118</v>
+        <v>869694051419992</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -691,42 +682,22 @@
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4">
-        <v>867623050565770</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4">
-        <v>867623050566133</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
+++ b/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>S.N</t>
   </si>
@@ -91,19 +91,25 @@
     <t xml:space="preserve">1 time 20days stay in CC. 2nd Time same problem </t>
   </si>
   <si>
-    <t>Zilani Mobile</t>
-  </si>
-  <si>
-    <t>7i</t>
-  </si>
-  <si>
-    <t>09.12.2021</t>
-  </si>
-  <si>
-    <t>Tuhin Mobile</t>
-  </si>
-  <si>
-    <t>C25/64</t>
+    <t>Dealer House</t>
+  </si>
+  <si>
+    <t>C25s/128</t>
+  </si>
+  <si>
+    <t>12.12.2021</t>
+  </si>
+  <si>
+    <t>Full Box</t>
+  </si>
+  <si>
+    <t>Bosundhora</t>
+  </si>
+  <si>
+    <t>C20a</t>
+  </si>
+  <si>
+    <t>Desh Mobile</t>
   </si>
 </sst>
 </file>
@@ -561,7 +567,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,16 +647,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="4">
-        <v>861627040681270</v>
+        <v>867623054542031</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>25</v>
@@ -662,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4">
-        <v>869694051419992</v>
+        <v>868790052189815</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>25</v>
@@ -682,11 +688,21 @@
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4">
+        <v>861180050968294</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
+++ b/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>S.N</t>
   </si>
@@ -91,25 +91,34 @@
     <t xml:space="preserve">1 time 20days stay in CC. 2nd Time same problem </t>
   </si>
   <si>
-    <t>Dealer House</t>
-  </si>
-  <si>
-    <t>C25s/128</t>
-  </si>
-  <si>
-    <t>12.12.2021</t>
-  </si>
-  <si>
-    <t>Full Box</t>
-  </si>
-  <si>
-    <t>Bosundhora</t>
-  </si>
-  <si>
-    <t>C20a</t>
-  </si>
-  <si>
-    <t>Desh Mobile</t>
+    <t>c20-a</t>
+  </si>
+  <si>
+    <t>Brothers mobile</t>
+  </si>
+  <si>
+    <t>19.12.2021</t>
+  </si>
+  <si>
+    <t>c21-32</t>
+  </si>
+  <si>
+    <t>A b c communication</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>c25-64</t>
+  </si>
+  <si>
+    <t>Tuhin mobile</t>
+  </si>
+  <si>
+    <t>Bhuiyan mobile</t>
+  </si>
+  <si>
+    <t>c21y-64</t>
   </si>
 </sst>
 </file>
@@ -567,7 +576,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,16 +656,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" s="4">
-        <v>867623054542031</v>
+        <v>868790051309059</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>25</v>
@@ -671,13 +680,13 @@
         <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4">
+        <v>869092051496450</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="4">
-        <v>868790052189815</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>25</v>
@@ -689,16 +698,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="3">
-        <v>8</v>
-      </c>
       <c r="D7" s="4">
-        <v>861180050968294</v>
+        <v>869694051491793</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>25</v>
@@ -709,11 +718,21 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4">
+        <v>864623051209330</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
+++ b/Realme/Others/Realme DOA+Servicing  Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>S.N</t>
   </si>
@@ -91,15 +91,6 @@
     <t xml:space="preserve">1 time 20days stay in CC. 2nd Time same problem </t>
   </si>
   <si>
-    <t>c20-a</t>
-  </si>
-  <si>
-    <t>Brothers mobile</t>
-  </si>
-  <si>
-    <t>19.12.2021</t>
-  </si>
-  <si>
     <t>c21-32</t>
   </si>
   <si>
@@ -109,16 +100,10 @@
     <t>p</t>
   </si>
   <si>
-    <t>c25-64</t>
-  </si>
-  <si>
-    <t>Tuhin mobile</t>
-  </si>
-  <si>
-    <t>Bhuiyan mobile</t>
-  </si>
-  <si>
-    <t>c21y-64</t>
+    <t>Galaxy Mobile</t>
+  </si>
+  <si>
+    <t>28.12.2021</t>
   </si>
 </sst>
 </file>
@@ -576,7 +561,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,19 +641,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4">
-        <v>868790051309059</v>
+        <v>868529042058791</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -677,19 +662,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4">
         <v>869092051496450</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -697,42 +682,22 @@
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4">
-        <v>869694051491793</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="4">
-        <v>864623051209330</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
